--- a/static/Financial Business Plan.xlsx
+++ b/static/Financial Business Plan.xlsx
@@ -5,8 +5,8 @@
   <sheets>
     <sheet state="visible" name="Financial Business Plan" sheetId="1" r:id="rId3"/>
     <sheet state="hidden" name="Time Sheet" sheetId="2" r:id="rId4"/>
-    <sheet state="hidden" name="Overhead Recovery" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="New Overhead Recovery" sheetId="4" r:id="rId6"/>
+    <sheet state="hidden" name="Overhead Recovery(old)" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="Overhead Recovery" sheetId="4" r:id="rId6"/>
     <sheet state="hidden" name="Labour Pay" sheetId="5" r:id="rId7"/>
     <sheet state="hidden" name="Labour Pay(old)" sheetId="6" r:id="rId8"/>
     <sheet state="hidden" name="Marketing and Sales Strategies" sheetId="7" r:id="rId9"/>
@@ -3480,6 +3480,31 @@
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="3" pivot="0" name="Overhead Recovery(old)-style">
+      <tableStyleElement dxfId="4" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Overhead Recovery(old)-style 2">
+      <tableStyleElement dxfId="4" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Overhead Recovery(old)-style 3">
+      <tableStyleElement dxfId="4" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Overhead Recovery(old)-style 4">
+      <tableStyleElement dxfId="4" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Overhead Recovery(old)-style 5">
+      <tableStyleElement dxfId="4" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="Overhead Recovery-style">
       <tableStyleElement dxfId="4" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -3501,31 +3526,6 @@
       <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Overhead Recovery-style 5">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="New Overhead Recovery-style">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="New Overhead Recovery-style 2">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="New Overhead Recovery-style 3">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="New Overhead Recovery-style 4">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="New Overhead Recovery-style 5">
       <tableStyleElement dxfId="4" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="5" type="secondRowStripe"/>
@@ -3590,21 +3590,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'New Overhead Recovery'!$I$30:$L$30</c:f>
+              <c:f>'Overhead Recovery'!$I$30:$L$30</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'New Overhead Recovery'!$I$31:$L$31</c:f>
+              <c:f>'Overhead Recovery'!$I$31:$L$31</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1126429628"/>
-        <c:axId val="1217489244"/>
+        <c:axId val="1452517875"/>
+        <c:axId val="310448557"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1126429628"/>
+        <c:axId val="1452517875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,10 +3656,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1217489244"/>
+        <c:crossAx val="310448557"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1217489244"/>
+        <c:axId val="310448557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3734,7 +3734,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126429628"/>
+        <c:crossAx val="1452517875"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3868,7 +3868,7 @@
     <tableColumn name="Column4" id="4"/>
     <tableColumn name="Column5" id="5"/>
   </tableColumns>
-  <tableStyleInfo name="New Overhead Recovery-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -3883,7 +3883,7 @@
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
   </tableColumns>
-  <tableStyleInfo name="New Overhead Recovery-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -3921,7 +3921,7 @@
     <tableColumn name="Extended online package" id="6"/>
     <tableColumn name="Extended functionality package" id="7"/>
   </tableColumns>
-  <tableStyleInfo name="Overhead Recovery-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery(old)-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -3937,7 +3937,7 @@
     <tableColumn name="Extended functionality package" id="7"/>
     <tableColumn name="Total" id="8"/>
   </tableColumns>
-  <tableStyleInfo name="Overhead Recovery-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery(old)-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -3953,7 +3953,7 @@
     <tableColumn name="Column7" id="7"/>
     <tableColumn name="Column8" id="8"/>
   </tableColumns>
-  <tableStyleInfo name="Overhead Recovery-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery(old)-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -3968,7 +3968,7 @@
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
   </tableColumns>
-  <tableStyleInfo name="Overhead Recovery-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery(old)-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -3985,7 +3985,7 @@
     <tableColumn name="Management" id="3"/>
     <tableColumn name="Total" id="4"/>
   </tableColumns>
-  <tableStyleInfo name="Overhead Recovery-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery(old)-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -3999,7 +3999,7 @@
     <tableColumn name="Column5" id="5"/>
     <tableColumn name="Column6" id="6"/>
   </tableColumns>
-  <tableStyleInfo name="New Overhead Recovery-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -4018,7 +4018,7 @@
     <tableColumn name="Column5" id="5"/>
     <tableColumn name="Column6" id="6"/>
   </tableColumns>
-  <tableStyleInfo name="New Overhead Recovery-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -4035,7 +4035,7 @@
     <tableColumn name="Column3" id="3"/>
     <tableColumn name="Column4" id="4"/>
   </tableColumns>
-  <tableStyleInfo name="New Overhead Recovery-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Overhead Recovery-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
